--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_106.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_31</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.140625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>[['B:min7/4', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(55.82, 61.68)]</t>
+          <t>[['D:min7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(60.62, 66.36)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:47.371000', '0:00:50.945000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:04.240000', '0:00:09.620000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.168956043956044</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.66, 7.98)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.523, 10.397)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:50.320000', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05955414012738854</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db'], ['Db:maj6', 'Db:maj6', 'Db:maj6']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2135416666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb:maj6', 'Eb:maj6', 'Eb:maj6']]</t>
+          <t>[['D/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5), (166.3, 177.94)]</t>
+          <t>[['F/7', 'F/6', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88), (192.68, 196.4)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:32.073492', '0:01:35.022426')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:32.090000', '0:00:37.538000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_77</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2534722222222222</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.146, 9.474)]</t>
+          <t>[['G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(128.76, 133.56)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:11.040000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:20.040000', '0:00:23.450000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D'], ['A#:maj', 'G:min/D', 'D:7', 'G:min'], ['G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08973214285714286</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>[['Bb:7', 'Eb', 'Bb'], ['Ab', 'Eb', 'Bb/3'], ['Ab', 'Bb', 'Eb'], ['Bb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(41.92, 51.28), (38.94, 49.0), (45.94, 59.04)]</t>
+          <t>[['E:7', 'A', 'E'], ['D', 'A', 'E'], ['D', 'E', 'A'], ['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(25.8, 31.82), (67.16, 72.4), (24.68, 29.46)]</t>
+          <t>[('0:00:18.253000', '0:00:21.412000'), ('0:00:25.942000', '0:00:29.102000'), ('0:00:07.043000', '0:00:10.286000'), ('0:00:10.286000', '0:00:15.006000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:55.002834', '0:00:59.124376'), ('0:01:32.746870', '0:01:36.589773'), ('0:00:03.605464', '0:00:10.966190'), ('0:00:05.463061', '0:00:12.591587')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.6, 11.26)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1154771451483561</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.525</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb:7/3', 'Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(55.366, 61.257)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(45.018, 51.649)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(65.3, 73.12)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06346153846153846</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.34, 42.08), (12.14, 20.02), (74.1, 80.04), (34.86, 39.7), (25.48, 32.58)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.3, 38.62), (12.28, 17.3), (23.3, 26.86), (41.08, 42.94), (7.62, 11.12)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1899350649350649</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(24.401147, 28.461467), (28.800769, 40.713165)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361), (60.898, 67.056)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.7, 10.32)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05050872093023256</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj(*1)/5', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'C']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.454596, 24.259614)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.67, 25.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_229</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1354166666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/9', 'B', 'A:maj/9']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.779614, 7.239387)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.991768, 25.350952)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(44.2, 59.98)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_12</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.03507967442393672</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(27.37, 31.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.66, 13.59)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
